--- a/صيدليات دكتور مصطفي طلعت_2026-01-08_21-23.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-08_21-23.xlsx
@@ -423,6 +423,12 @@
   </si>
   <si>
     <t xml:space="preserve">معطر فريدا </t>
+  </si>
+  <si>
+    <t>مناديل سولو سحب صغيره</t>
+  </si>
+  <si>
+    <t>15:0</t>
   </si>
   <si>
     <t>Thursday, 8 January, 2026 9:23 PM</t>
@@ -3472,38 +3478,64 @@
         <v>11</v>
       </c>
     </row>
-    <row r="99" ht="25.5" customHeight="1">
-      <c r="K99" s="10">
-        <v>5993.54</v>
-      </c>
-      <c r="L99" s="10"/>
-      <c r="M99" s="10"/>
-      <c r="N99" s="10"/>
-    </row>
-    <row r="100" ht="16.5" customHeight="1">
-      <c t="s" r="A100" s="11">
+    <row r="99" ht="24.75" customHeight="1">
+      <c r="A99" s="6">
+        <v>96</v>
+      </c>
+      <c t="s" r="B99" s="7">
         <v>138</v>
       </c>
-      <c r="B100" s="11"/>
-      <c r="C100" s="11"/>
-      <c r="D100" s="11"/>
-      <c r="E100" s="11"/>
-      <c t="s" r="F100" s="12">
+      <c r="C99" s="7"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="7"/>
+      <c r="F99" s="7"/>
+      <c r="G99" s="7"/>
+      <c t="s" r="H99" s="8">
         <v>139</v>
       </c>
-      <c r="G100" s="12"/>
-      <c r="H100" s="13"/>
-      <c t="s" r="I100" s="14">
+      <c r="I99" s="8"/>
+      <c r="J99" s="8"/>
+      <c r="K99" s="8"/>
+      <c r="L99" s="9">
+        <v>35</v>
+      </c>
+      <c r="M99" s="9"/>
+      <c t="s" r="N99" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" ht="26.25" customHeight="1">
+      <c r="K100" s="10">
+        <v>6028.54</v>
+      </c>
+      <c r="L100" s="10"/>
+      <c r="M100" s="10"/>
+      <c r="N100" s="10"/>
+    </row>
+    <row r="101" ht="16.5" customHeight="1">
+      <c t="s" r="A101" s="11">
         <v>140</v>
       </c>
-      <c r="J100" s="14"/>
-      <c r="K100" s="14"/>
-      <c r="L100" s="14"/>
-      <c r="M100" s="14"/>
-      <c r="N100" s="14"/>
+      <c r="B101" s="11"/>
+      <c r="C101" s="11"/>
+      <c r="D101" s="11"/>
+      <c r="E101" s="11"/>
+      <c t="s" r="F101" s="12">
+        <v>141</v>
+      </c>
+      <c r="G101" s="12"/>
+      <c r="H101" s="13"/>
+      <c t="s" r="I101" s="14">
+        <v>142</v>
+      </c>
+      <c r="J101" s="14"/>
+      <c r="K101" s="14"/>
+      <c r="L101" s="14"/>
+      <c r="M101" s="14"/>
+      <c r="N101" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="296">
+  <mergeCells count="299">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -3796,10 +3828,13 @@
     <mergeCell ref="B98:G98"/>
     <mergeCell ref="H98:K98"/>
     <mergeCell ref="L98:M98"/>
-    <mergeCell ref="K99:N99"/>
-    <mergeCell ref="A100:E100"/>
-    <mergeCell ref="F100:G100"/>
-    <mergeCell ref="I100:N100"/>
+    <mergeCell ref="B99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="K100:N100"/>
+    <mergeCell ref="A101:E101"/>
+    <mergeCell ref="F101:G101"/>
+    <mergeCell ref="I101:N101"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
